--- a/AG_nais_einheiten_unique_v2_mf.xlsx
+++ b/AG_nais_einheiten_unique_v2_mf.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16E2CDC-CDCB-429B-8D02-3CF718D38FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2DEA1-85DF-477B-9C84-0E19B2F759AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="-5280" windowWidth="24465" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49755" yWindow="900" windowWidth="19215" windowHeight="19875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Read me" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="915">
   <si>
     <t>STAO_87</t>
   </si>
@@ -2763,6 +2776,9 @@
   </si>
   <si>
     <t>12a(18M)</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -3142,19 +3158,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J650" sqref="J650"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="H559" sqref="H559"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>914</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3194,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3197,7 +3217,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -3220,7 +3240,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -3243,7 +3263,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>161</v>
       </c>
@@ -3266,7 +3286,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>268</v>
       </c>
@@ -3289,7 +3309,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>370</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>413</v>
       </c>
@@ -3335,7 +3355,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>454</v>
       </c>
@@ -3358,7 +3378,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>499</v>
       </c>
@@ -3381,7 +3401,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -3404,7 +3424,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>512</v>
       </c>
@@ -3427,7 +3447,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>657</v>
       </c>
@@ -3450,7 +3470,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>717</v>
       </c>
@@ -3473,7 +3493,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1160</v>
       </c>
@@ -3496,7 +3516,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1249</v>
       </c>
@@ -3519,7 +3539,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1274</v>
       </c>
@@ -3542,7 +3562,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1317</v>
       </c>
@@ -3565,7 +3585,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1758</v>
       </c>
@@ -3588,7 +3608,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1927</v>
       </c>
@@ -3611,7 +3631,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2082</v>
       </c>
@@ -3634,7 +3654,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3262</v>
       </c>
@@ -3657,7 +3677,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3729</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3736</v>
       </c>
@@ -3703,7 +3723,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3756</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3839</v>
       </c>
@@ -3749,7 +3769,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4007</v>
       </c>
@@ -3772,7 +3792,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4009</v>
       </c>
@@ -3795,7 +3815,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4209</v>
       </c>
@@ -3818,7 +3838,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4243</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4259</v>
       </c>
@@ -3864,7 +3884,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4301</v>
       </c>
@@ -3887,7 +3907,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4341</v>
       </c>
@@ -3910,7 +3930,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4377</v>
       </c>
@@ -3933,7 +3953,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4386</v>
       </c>
@@ -3956,7 +3976,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4446</v>
       </c>
@@ -3979,7 +3999,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4562</v>
       </c>
@@ -4002,7 +4022,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4981</v>
       </c>
@@ -4025,7 +4045,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5267</v>
       </c>
@@ -4048,7 +4068,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5456</v>
       </c>
@@ -4071,7 +4091,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5646</v>
       </c>
@@ -4094,7 +4114,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5704</v>
       </c>
@@ -4117,7 +4137,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>6778</v>
       </c>
@@ -4140,7 +4160,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>7162</v>
       </c>
@@ -4163,7 +4183,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7166</v>
       </c>
@@ -4186,7 +4206,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7169</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7183</v>
       </c>
@@ -4232,7 +4252,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7188</v>
       </c>
@@ -4255,7 +4275,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>7249</v>
       </c>
@@ -4278,7 +4298,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7274</v>
       </c>
@@ -4301,7 +4321,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7294</v>
       </c>
@@ -4324,7 +4344,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7373</v>
       </c>
@@ -4347,7 +4367,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7432</v>
       </c>
@@ -4370,7 +4390,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>7442</v>
       </c>
@@ -4393,7 +4413,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7494</v>
       </c>
@@ -4416,7 +4436,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7513</v>
       </c>
@@ -4439,7 +4459,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7525</v>
       </c>
@@ -4462,7 +4482,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7532</v>
       </c>
@@ -4485,7 +4505,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>7561</v>
       </c>
@@ -4508,7 +4528,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>7571</v>
       </c>
@@ -4531,7 +4551,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7625</v>
       </c>
@@ -4554,7 +4574,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8194</v>
       </c>
@@ -4577,7 +4597,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>8287</v>
       </c>
@@ -4600,7 +4620,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>8307</v>
       </c>
@@ -4623,7 +4643,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>8405</v>
       </c>
@@ -4646,7 +4666,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8832</v>
       </c>
@@ -4669,7 +4689,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9063</v>
       </c>
@@ -4692,7 +4712,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>9098</v>
       </c>
@@ -4715,7 +4735,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>9385</v>
       </c>
@@ -4738,7 +4758,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>9461</v>
       </c>
@@ -4761,7 +4781,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9467</v>
       </c>
@@ -4784,7 +4804,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9809</v>
       </c>
@@ -4807,7 +4827,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9833</v>
       </c>
@@ -4830,7 +4850,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>9856</v>
       </c>
@@ -4853,7 +4873,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9869</v>
       </c>
@@ -4876,7 +4896,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10039</v>
       </c>
@@ -4899,7 +4919,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10061</v>
       </c>
@@ -4922,7 +4942,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10156</v>
       </c>
@@ -4945,7 +4965,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>10209</v>
       </c>
@@ -4968,7 +4988,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10210</v>
       </c>
@@ -4991,7 +5011,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10216</v>
       </c>
@@ -5014,7 +5034,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>10370</v>
       </c>
@@ -5037,7 +5057,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10372</v>
       </c>
@@ -5060,7 +5080,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10464</v>
       </c>
@@ -5083,7 +5103,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>10824</v>
       </c>
@@ -5106,7 +5126,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>10840</v>
       </c>
@@ -5129,7 +5149,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>10890</v>
       </c>
@@ -5152,7 +5172,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>11388</v>
       </c>
@@ -5175,7 +5195,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>11805</v>
       </c>
@@ -5198,7 +5218,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>11806</v>
       </c>
@@ -5221,7 +5241,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>11977</v>
       </c>
@@ -5244,7 +5264,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>11996</v>
       </c>
@@ -5267,7 +5287,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>12001</v>
       </c>
@@ -5290,7 +5310,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>12017</v>
       </c>
@@ -5313,7 +5333,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>12135</v>
       </c>
@@ -5336,7 +5356,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>12471</v>
       </c>
@@ -5359,7 +5379,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>13062</v>
       </c>
@@ -5382,7 +5402,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>14295</v>
       </c>
@@ -5405,7 +5425,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>14366</v>
       </c>
@@ -5428,7 +5448,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>14372</v>
       </c>
@@ -5451,7 +5471,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>15193</v>
       </c>
@@ -5474,7 +5494,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>15198</v>
       </c>
@@ -5497,7 +5517,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>15236</v>
       </c>
@@ -5520,7 +5540,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>15336</v>
       </c>
@@ -5543,7 +5563,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>15418</v>
       </c>
@@ -5566,7 +5586,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>15438</v>
       </c>
@@ -5589,7 +5609,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>15676</v>
       </c>
@@ -5612,7 +5632,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>15819</v>
       </c>
@@ -5635,7 +5655,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>16531</v>
       </c>
@@ -5658,7 +5678,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>17804</v>
       </c>
@@ -5681,7 +5701,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>17898</v>
       </c>
@@ -5704,7 +5724,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>18211</v>
       </c>
@@ -5727,7 +5747,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>18220</v>
       </c>
@@ -5750,7 +5770,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>18237</v>
       </c>
@@ -5773,7 +5793,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>18284</v>
       </c>
@@ -5796,7 +5816,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>18336</v>
       </c>
@@ -5819,7 +5839,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>18506</v>
       </c>
@@ -5842,7 +5862,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>18511</v>
       </c>
@@ -5865,7 +5885,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>18515</v>
       </c>
@@ -5888,7 +5908,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>18520</v>
       </c>
@@ -5911,7 +5931,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>18855</v>
       </c>
@@ -5934,7 +5954,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>18952</v>
       </c>
@@ -5957,7 +5977,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>19042</v>
       </c>
@@ -5980,7 +6000,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>19051</v>
       </c>
@@ -6003,7 +6023,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>19059</v>
       </c>
@@ -6026,7 +6046,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>19654</v>
       </c>
@@ -6049,7 +6069,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>19661</v>
       </c>
@@ -6072,7 +6092,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>20470</v>
       </c>
@@ -6095,7 +6115,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>20601</v>
       </c>
@@ -6118,7 +6138,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>21023</v>
       </c>
@@ -6141,7 +6161,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>21431</v>
       </c>
@@ -6164,7 +6184,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>22352</v>
       </c>
@@ -6187,7 +6207,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>22361</v>
       </c>
@@ -6210,7 +6230,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>22443</v>
       </c>
@@ -6233,7 +6253,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>22520</v>
       </c>
@@ -6256,7 +6276,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>22691</v>
       </c>
@@ -6279,7 +6299,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>22867</v>
       </c>
@@ -6302,7 +6322,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>23056</v>
       </c>
@@ -6325,7 +6345,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>23403</v>
       </c>
@@ -6348,7 +6368,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>23485</v>
       </c>
@@ -6371,7 +6391,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>23486</v>
       </c>
@@ -6394,7 +6414,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>23491</v>
       </c>
@@ -6417,7 +6437,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>23537</v>
       </c>
@@ -6440,7 +6460,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>23568</v>
       </c>
@@ -6463,7 +6483,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>23576</v>
       </c>
@@ -6486,7 +6506,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>23589</v>
       </c>
@@ -6509,7 +6529,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>23638</v>
       </c>
@@ -6532,7 +6552,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>23657</v>
       </c>
@@ -6555,7 +6575,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>23686</v>
       </c>
@@ -6578,7 +6598,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>23689</v>
       </c>
@@ -6601,7 +6621,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>23907</v>
       </c>
@@ -6624,7 +6644,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>23935</v>
       </c>
@@ -6647,7 +6667,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>24571</v>
       </c>
@@ -6670,7 +6690,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>24577</v>
       </c>
@@ -6693,7 +6713,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>24589</v>
       </c>
@@ -6716,7 +6736,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>24607</v>
       </c>
@@ -6739,7 +6759,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>24627</v>
       </c>
@@ -6762,7 +6782,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>24648</v>
       </c>
@@ -6785,7 +6805,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>24658</v>
       </c>
@@ -6808,7 +6828,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>24663</v>
       </c>
@@ -6831,7 +6851,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>24664</v>
       </c>
@@ -6854,7 +6874,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>24667</v>
       </c>
@@ -6877,7 +6897,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>24728</v>
       </c>
@@ -6900,7 +6920,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>24784</v>
       </c>
@@ -6923,7 +6943,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>24787</v>
       </c>
@@ -6946,7 +6966,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>24820</v>
       </c>
@@ -6969,7 +6989,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>24845</v>
       </c>
@@ -6992,7 +7012,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>25043</v>
       </c>
@@ -7015,7 +7035,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>25206</v>
       </c>
@@ -7038,7 +7058,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>25414</v>
       </c>
@@ -7061,7 +7081,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>25421</v>
       </c>
@@ -7084,7 +7104,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>25425</v>
       </c>
@@ -7107,7 +7127,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>25454</v>
       </c>
@@ -7130,7 +7150,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>25455</v>
       </c>
@@ -7153,7 +7173,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>25483</v>
       </c>
@@ -7176,7 +7196,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>25487</v>
       </c>
@@ -7199,7 +7219,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>25521</v>
       </c>
@@ -7222,7 +7242,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>25534</v>
       </c>
@@ -7245,7 +7265,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>25635</v>
       </c>
@@ -7268,7 +7288,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>25682</v>
       </c>
@@ -7291,7 +7311,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>26107</v>
       </c>
@@ -7314,7 +7334,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>26221</v>
       </c>
@@ -7337,7 +7357,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>26337</v>
       </c>
@@ -7360,7 +7380,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>26493</v>
       </c>
@@ -7383,7 +7403,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>26497</v>
       </c>
@@ -7406,7 +7426,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>26640</v>
       </c>
@@ -7429,7 +7449,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>26998</v>
       </c>
@@ -7452,7 +7472,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>27013</v>
       </c>
@@ -7475,7 +7495,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>27034</v>
       </c>
@@ -7498,7 +7518,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>27061</v>
       </c>
@@ -7521,7 +7541,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>27068</v>
       </c>
@@ -7544,7 +7564,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>27307</v>
       </c>
@@ -7567,7 +7587,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>27373</v>
       </c>
@@ -7590,7 +7610,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>27443</v>
       </c>
@@ -7613,7 +7633,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>27447</v>
       </c>
@@ -7636,7 +7656,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>27768</v>
       </c>
@@ -7659,7 +7679,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>28188</v>
       </c>
@@ -7682,7 +7702,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>28252</v>
       </c>
@@ -7705,7 +7725,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>28258</v>
       </c>
@@ -7728,7 +7748,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>28293</v>
       </c>
@@ -7751,7 +7771,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>28346</v>
       </c>
@@ -7774,7 +7794,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>28347</v>
       </c>
@@ -7797,7 +7817,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>28348</v>
       </c>
@@ -7820,7 +7840,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>28349</v>
       </c>
@@ -7843,7 +7863,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>28396</v>
       </c>
@@ -7866,7 +7886,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>28421</v>
       </c>
@@ -7889,7 +7909,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>28425</v>
       </c>
@@ -7912,7 +7932,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>28445</v>
       </c>
@@ -7935,7 +7955,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>28568</v>
       </c>
@@ -7958,7 +7978,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>28584</v>
       </c>
@@ -7981,7 +8001,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>28661</v>
       </c>
@@ -8004,7 +8024,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>29521</v>
       </c>
@@ -8027,7 +8047,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>29944</v>
       </c>
@@ -8050,7 +8070,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>30014</v>
       </c>
@@ -8073,7 +8093,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>30694</v>
       </c>
@@ -8096,7 +8116,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>30695</v>
       </c>
@@ -8119,7 +8139,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>30745</v>
       </c>
@@ -8142,7 +8162,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>30849</v>
       </c>
@@ -8165,7 +8185,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>30858</v>
       </c>
@@ -8188,7 +8208,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>30887</v>
       </c>
@@ -8211,7 +8231,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>30898</v>
       </c>
@@ -8234,7 +8254,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>30915</v>
       </c>
@@ -8257,7 +8277,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>31065</v>
       </c>
@@ -8280,7 +8300,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>31183</v>
       </c>
@@ -8303,7 +8323,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>31199</v>
       </c>
@@ -8326,7 +8346,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>31200</v>
       </c>
@@ -8349,7 +8369,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>31351</v>
       </c>
@@ -8372,7 +8392,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>31353</v>
       </c>
@@ -8395,7 +8415,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>31638</v>
       </c>
@@ -8418,7 +8438,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>31685</v>
       </c>
@@ -8441,7 +8461,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>31730</v>
       </c>
@@ -8464,7 +8484,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>31751</v>
       </c>
@@ -8487,7 +8507,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>31755</v>
       </c>
@@ -8510,7 +8530,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>31762</v>
       </c>
@@ -8533,7 +8553,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>31763</v>
       </c>
@@ -8556,7 +8576,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>31798</v>
       </c>
@@ -8579,7 +8599,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>31819</v>
       </c>
@@ -8602,7 +8622,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>31881</v>
       </c>
@@ -8625,7 +8645,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>31979</v>
       </c>
@@ -8648,7 +8668,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>32022</v>
       </c>
@@ -8671,7 +8691,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>32023</v>
       </c>
@@ -8694,7 +8714,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>32206</v>
       </c>
@@ -8717,7 +8737,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>32248</v>
       </c>
@@ -8740,7 +8760,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>32250</v>
       </c>
@@ -8763,7 +8783,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>32251</v>
       </c>
@@ -8786,7 +8806,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>32253</v>
       </c>
@@ -8809,7 +8829,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>32327</v>
       </c>
@@ -8832,7 +8852,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>32370</v>
       </c>
@@ -8855,7 +8875,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>32372</v>
       </c>
@@ -8878,7 +8898,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>32373</v>
       </c>
@@ -8901,7 +8921,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>32375</v>
       </c>
@@ -8924,7 +8944,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>32452</v>
       </c>
@@ -8947,7 +8967,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>32542</v>
       </c>
@@ -8970,7 +8990,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>32580</v>
       </c>
@@ -8993,7 +9013,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>33453</v>
       </c>
@@ -9016,7 +9036,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>33767</v>
       </c>
@@ -9039,7 +9059,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>34094</v>
       </c>
@@ -9062,7 +9082,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>34263</v>
       </c>
@@ -9085,7 +9105,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>34328</v>
       </c>
@@ -9108,7 +9128,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>35294</v>
       </c>
@@ -9131,7 +9151,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>35944</v>
       </c>
@@ -9154,7 +9174,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>36322</v>
       </c>
@@ -9177,7 +9197,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>36325</v>
       </c>
@@ -9200,7 +9220,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>36368</v>
       </c>
@@ -9223,7 +9243,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>36393</v>
       </c>
@@ -9246,7 +9266,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>36416</v>
       </c>
@@ -9269,7 +9289,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>36510</v>
       </c>
@@ -9292,7 +9312,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>36551</v>
       </c>
@@ -9315,7 +9335,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>36677</v>
       </c>
@@ -9338,7 +9358,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>36680</v>
       </c>
@@ -9361,7 +9381,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>36800</v>
       </c>
@@ -9384,7 +9404,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>36895</v>
       </c>
@@ -9407,7 +9427,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>36958</v>
       </c>
@@ -9430,7 +9450,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>37170</v>
       </c>
@@ -9453,7 +9473,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>37199</v>
       </c>
@@ -9476,7 +9496,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>37252</v>
       </c>
@@ -9499,7 +9519,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>37258</v>
       </c>
@@ -9522,7 +9542,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>37265</v>
       </c>
@@ -9545,7 +9565,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>37269</v>
       </c>
@@ -9568,7 +9588,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>37274</v>
       </c>
@@ -9591,7 +9611,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>37279</v>
       </c>
@@ -9614,7 +9634,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>37290</v>
       </c>
@@ -9637,7 +9657,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>37320</v>
       </c>
@@ -9660,7 +9680,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>37366</v>
       </c>
@@ -9683,7 +9703,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>37395</v>
       </c>
@@ -9706,7 +9726,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>37447</v>
       </c>
@@ -9729,7 +9749,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>37496</v>
       </c>
@@ -9752,7 +9772,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>37528</v>
       </c>
@@ -9775,7 +9795,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>37530</v>
       </c>
@@ -9798,7 +9818,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>37555</v>
       </c>
@@ -9821,7 +9841,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>37564</v>
       </c>
@@ -9844,7 +9864,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>37567</v>
       </c>
@@ -9867,7 +9887,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>37570</v>
       </c>
@@ -9890,7 +9910,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>37582</v>
       </c>
@@ -9913,7 +9933,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>37601</v>
       </c>
@@ -9936,7 +9956,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>37604</v>
       </c>
@@ -9959,7 +9979,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>37679</v>
       </c>
@@ -9982,7 +10002,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>37701</v>
       </c>
@@ -10005,7 +10025,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>37916</v>
       </c>
@@ -10028,7 +10048,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>37984</v>
       </c>
@@ -10051,7 +10071,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>38007</v>
       </c>
@@ -10074,7 +10094,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>38008</v>
       </c>
@@ -10097,7 +10117,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>38142</v>
       </c>
@@ -10120,7 +10140,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>38282</v>
       </c>
@@ -10143,7 +10163,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>38494</v>
       </c>
@@ -10166,7 +10186,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>38816</v>
       </c>
@@ -10189,7 +10209,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>38842</v>
       </c>
@@ -10212,7 +10232,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>38850</v>
       </c>
@@ -10235,7 +10255,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>38868</v>
       </c>
@@ -10258,7 +10278,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>38919</v>
       </c>
@@ -10281,7 +10301,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>38920</v>
       </c>
@@ -10304,7 +10324,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>38951</v>
       </c>
@@ -10327,7 +10347,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>39023</v>
       </c>
@@ -10350,7 +10370,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>39219</v>
       </c>
@@ -10373,7 +10393,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>39238</v>
       </c>
@@ -10396,7 +10416,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>39253</v>
       </c>
@@ -10419,7 +10439,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>39279</v>
       </c>
@@ -10442,7 +10462,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>39362</v>
       </c>
@@ -10465,7 +10485,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>39511</v>
       </c>
@@ -10488,7 +10508,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>39558</v>
       </c>
@@ -10511,7 +10531,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>39786</v>
       </c>
@@ -10534,7 +10554,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>40281</v>
       </c>
@@ -10557,7 +10577,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>40770</v>
       </c>
@@ -10580,7 +10600,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>40813</v>
       </c>
@@ -10603,7 +10623,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>40849</v>
       </c>
@@ -10626,7 +10646,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>41332</v>
       </c>
@@ -10649,7 +10669,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>41333</v>
       </c>
@@ -10672,7 +10692,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>41341</v>
       </c>
@@ -10695,7 +10715,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>41343</v>
       </c>
@@ -10718,7 +10738,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>41586</v>
       </c>
@@ -10741,7 +10761,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>42064</v>
       </c>
@@ -10764,7 +10784,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>42378</v>
       </c>
@@ -10787,7 +10807,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>42407</v>
       </c>
@@ -10810,7 +10830,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>42518</v>
       </c>
@@ -10833,7 +10853,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>42535</v>
       </c>
@@ -10856,7 +10876,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>42629</v>
       </c>
@@ -10879,7 +10899,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>42735</v>
       </c>
@@ -10902,7 +10922,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>42931</v>
       </c>
@@ -10925,7 +10945,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43249</v>
       </c>
@@ -10948,7 +10968,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43785</v>
       </c>
@@ -10971,7 +10991,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43792</v>
       </c>
@@ -10994,7 +11014,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43796</v>
       </c>
@@ -11017,7 +11037,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43807</v>
       </c>
@@ -11040,7 +11060,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43823</v>
       </c>
@@ -11063,7 +11083,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43872</v>
       </c>
@@ -11086,7 +11106,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43901</v>
       </c>
@@ -11109,7 +11129,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44058</v>
       </c>
@@ -11132,7 +11152,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44063</v>
       </c>
@@ -11155,7 +11175,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44065</v>
       </c>
@@ -11178,7 +11198,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44077</v>
       </c>
@@ -11201,7 +11221,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44196</v>
       </c>
@@ -11224,7 +11244,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44210</v>
       </c>
@@ -11247,7 +11267,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44670</v>
       </c>
@@ -11270,7 +11290,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44694</v>
       </c>
@@ -11293,7 +11313,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44807</v>
       </c>
@@ -11316,7 +11336,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44862</v>
       </c>
@@ -11339,7 +11359,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44925</v>
       </c>
@@ -11362,7 +11382,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>45022</v>
       </c>
@@ -11385,7 +11405,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>45080</v>
       </c>
@@ -11408,7 +11428,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>45082</v>
       </c>
@@ -11431,7 +11451,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>46365</v>
       </c>
@@ -11454,7 +11474,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>47007</v>
       </c>
@@ -11477,7 +11497,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>47061</v>
       </c>
@@ -11500,7 +11520,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>47066</v>
       </c>
@@ -11523,7 +11543,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>47087</v>
       </c>
@@ -11546,7 +11566,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>47109</v>
       </c>
@@ -11569,7 +11589,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>47123</v>
       </c>
@@ -11592,7 +11612,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>47138</v>
       </c>
@@ -11615,7 +11635,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>47165</v>
       </c>
@@ -11638,7 +11658,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>47166</v>
       </c>
@@ -11661,7 +11681,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>47241</v>
       </c>
@@ -11684,7 +11704,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>47871</v>
       </c>
@@ -11707,7 +11727,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>47939</v>
       </c>
@@ -11730,7 +11750,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>47963</v>
       </c>
@@ -11753,7 +11773,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>48006</v>
       </c>
@@ -11776,7 +11796,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>48034</v>
       </c>
@@ -11799,7 +11819,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>48036</v>
       </c>
@@ -11822,7 +11842,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>48125</v>
       </c>
@@ -11845,7 +11865,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>48161</v>
       </c>
@@ -11868,7 +11888,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>48166</v>
       </c>
@@ -11891,7 +11911,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>48182</v>
       </c>
@@ -11914,7 +11934,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>48232</v>
       </c>
@@ -11937,7 +11957,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>48246</v>
       </c>
@@ -11960,7 +11980,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>48485</v>
       </c>
@@ -11983,7 +12003,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>48598</v>
       </c>
@@ -12006,7 +12026,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>48610</v>
       </c>
@@ -12029,7 +12049,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>48618</v>
       </c>
@@ -12052,7 +12072,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>48637</v>
       </c>
@@ -12075,7 +12095,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>48669</v>
       </c>
@@ -12098,7 +12118,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>48947</v>
       </c>
@@ -12121,7 +12141,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49016</v>
       </c>
@@ -12144,7 +12164,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49069</v>
       </c>
@@ -12167,7 +12187,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49210</v>
       </c>
@@ -12190,7 +12210,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49213</v>
       </c>
@@ -12213,7 +12233,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49215</v>
       </c>
@@ -12236,7 +12256,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49280</v>
       </c>
@@ -12259,7 +12279,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>49455</v>
       </c>
@@ -12282,7 +12302,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49461</v>
       </c>
@@ -12305,7 +12325,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49462</v>
       </c>
@@ -12328,7 +12348,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49647</v>
       </c>
@@ -12351,7 +12371,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49651</v>
       </c>
@@ -12374,7 +12394,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49762</v>
       </c>
@@ -12397,7 +12417,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49765</v>
       </c>
@@ -12420,7 +12440,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49771</v>
       </c>
@@ -12443,7 +12463,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49780</v>
       </c>
@@ -12466,7 +12486,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49789</v>
       </c>
@@ -12489,7 +12509,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49874</v>
       </c>
@@ -12512,7 +12532,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49960</v>
       </c>
@@ -12535,7 +12555,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49969</v>
       </c>
@@ -12558,7 +12578,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>50047</v>
       </c>
@@ -12581,7 +12601,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>50301</v>
       </c>
@@ -12604,7 +12624,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>50326</v>
       </c>
@@ -12627,7 +12647,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>50339</v>
       </c>
@@ -12650,7 +12670,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>50381</v>
       </c>
@@ -12673,7 +12693,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>50623</v>
       </c>
@@ -12696,7 +12716,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>50851</v>
       </c>
@@ -12719,7 +12739,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>50872</v>
       </c>
@@ -12742,7 +12762,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>50949</v>
       </c>
@@ -12765,7 +12785,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>50952</v>
       </c>
@@ -12788,7 +12808,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>50953</v>
       </c>
@@ -12811,7 +12831,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>51033</v>
       </c>
@@ -12834,7 +12854,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>51041</v>
       </c>
@@ -12857,7 +12877,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>51086</v>
       </c>
@@ -12880,7 +12900,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>51345</v>
       </c>
@@ -12903,7 +12923,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>51415</v>
       </c>
@@ -12926,7 +12946,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>51580</v>
       </c>
@@ -12949,7 +12969,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>51605</v>
       </c>
@@ -12972,7 +12992,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>51610</v>
       </c>
@@ -12995,7 +13015,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>51653</v>
       </c>
@@ -13018,7 +13038,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>51654</v>
       </c>
@@ -13041,7 +13061,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>51662</v>
       </c>
@@ -13064,7 +13084,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>51700</v>
       </c>
@@ -13087,7 +13107,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>51742</v>
       </c>
@@ -13110,7 +13130,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>51756</v>
       </c>
@@ -13133,7 +13153,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>51804</v>
       </c>
@@ -13156,7 +13176,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>51817</v>
       </c>
@@ -13179,7 +13199,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>51843</v>
       </c>
@@ -13202,7 +13222,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>51913</v>
       </c>
@@ -13225,7 +13245,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>51934</v>
       </c>
@@ -13248,7 +13268,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>51969</v>
       </c>
@@ -13271,7 +13291,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>52015</v>
       </c>
@@ -13294,7 +13314,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>52044</v>
       </c>
@@ -13317,7 +13337,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>52059</v>
       </c>
@@ -13340,7 +13360,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>52137</v>
       </c>
@@ -13363,7 +13383,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>52203</v>
       </c>
@@ -13386,7 +13406,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>52287</v>
       </c>
@@ -13409,7 +13429,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>52335</v>
       </c>
@@ -13432,7 +13452,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>52336</v>
       </c>
@@ -13455,7 +13475,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>52350</v>
       </c>
@@ -13478,7 +13498,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>52363</v>
       </c>
@@ -13501,7 +13521,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>52367</v>
       </c>
@@ -13524,7 +13544,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>52369</v>
       </c>
@@ -13547,7 +13567,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>52409</v>
       </c>
@@ -13570,7 +13590,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>52464</v>
       </c>
@@ -13593,7 +13613,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>52466</v>
       </c>
@@ -13616,7 +13636,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>52472</v>
       </c>
@@ -13639,7 +13659,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>52499</v>
       </c>
@@ -13662,7 +13682,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>52509</v>
       </c>
@@ -13685,7 +13705,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>52511</v>
       </c>
@@ -13708,7 +13728,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>52517</v>
       </c>
@@ -13731,7 +13751,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>52518</v>
       </c>
@@ -13754,7 +13774,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>52520</v>
       </c>
@@ -13777,7 +13797,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>52577</v>
       </c>
@@ -13800,7 +13820,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>52654</v>
       </c>
@@ -13823,7 +13843,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>52696</v>
       </c>
@@ -13846,7 +13866,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>52971</v>
       </c>
@@ -13869,7 +13889,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>53016</v>
       </c>
@@ -13892,7 +13912,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>53031</v>
       </c>
@@ -13915,7 +13935,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>53044</v>
       </c>
@@ -13938,7 +13958,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>53134</v>
       </c>
@@ -13961,7 +13981,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>53188</v>
       </c>
@@ -13984,7 +14004,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>53198</v>
       </c>
@@ -14007,7 +14027,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>53205</v>
       </c>
@@ -14030,7 +14050,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>53236</v>
       </c>
@@ -14053,7 +14073,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>53257</v>
       </c>
@@ -14076,7 +14096,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>53259</v>
       </c>
@@ -14099,7 +14119,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>53263</v>
       </c>
@@ -14122,7 +14142,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>53277</v>
       </c>
@@ -14145,7 +14165,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>53301</v>
       </c>
@@ -14168,7 +14188,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>53333</v>
       </c>
@@ -14191,7 +14211,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>53405</v>
       </c>
@@ -14214,7 +14234,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>53414</v>
       </c>
@@ -14237,7 +14257,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>53423</v>
       </c>
@@ -14260,7 +14280,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>53447</v>
       </c>
@@ -14283,7 +14303,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>53610</v>
       </c>
@@ -14306,7 +14326,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>53611</v>
       </c>
@@ -14329,7 +14349,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>53612</v>
       </c>
@@ -14352,7 +14372,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>53615</v>
       </c>
@@ -14375,7 +14395,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>53619</v>
       </c>
@@ -14398,7 +14418,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>53634</v>
       </c>
@@ -14421,7 +14441,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>53639</v>
       </c>
@@ -14444,7 +14464,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>53650</v>
       </c>
@@ -14467,7 +14487,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>53680</v>
       </c>
@@ -14490,7 +14510,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>53692</v>
       </c>
@@ -14513,7 +14533,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>53953</v>
       </c>
@@ -14536,7 +14556,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>53968</v>
       </c>
@@ -14559,7 +14579,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>53998</v>
       </c>
@@ -14582,7 +14602,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>54022</v>
       </c>
@@ -14605,7 +14625,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>54043</v>
       </c>
@@ -14628,7 +14648,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>54085</v>
       </c>
@@ -14651,7 +14671,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>54485</v>
       </c>
@@ -14674,7 +14694,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>54546</v>
       </c>
@@ -14697,7 +14717,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>54548</v>
       </c>
@@ -14720,7 +14740,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>54780</v>
       </c>
@@ -14743,7 +14763,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>54811</v>
       </c>
@@ -14766,7 +14786,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>54825</v>
       </c>
@@ -14789,7 +14809,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>54835</v>
       </c>
@@ -14812,7 +14832,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>54837</v>
       </c>
@@ -14835,7 +14855,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>54838</v>
       </c>
@@ -14858,7 +14878,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>54904</v>
       </c>
@@ -14881,7 +14901,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>54925</v>
       </c>
@@ -14904,7 +14924,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>54954</v>
       </c>
@@ -14927,7 +14947,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>54958</v>
       </c>
@@ -14950,7 +14970,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>54971</v>
       </c>
@@ -14973,7 +14993,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>54981</v>
       </c>
@@ -14996,7 +15016,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>54989</v>
       </c>
@@ -15019,7 +15039,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>55000</v>
       </c>
@@ -15042,7 +15062,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>55003</v>
       </c>
@@ -15065,7 +15085,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>55011</v>
       </c>
@@ -15088,7 +15108,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>55024</v>
       </c>
@@ -15111,7 +15131,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>55025</v>
       </c>
@@ -15134,7 +15154,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>55031</v>
       </c>
@@ -15157,7 +15177,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>55177</v>
       </c>
@@ -15180,7 +15200,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>55255</v>
       </c>
@@ -15203,7 +15223,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>55256</v>
       </c>
@@ -15226,7 +15246,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>55307</v>
       </c>
@@ -15249,7 +15269,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>55318</v>
       </c>
@@ -15272,7 +15292,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>55323</v>
       </c>
@@ -15295,7 +15315,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>55326</v>
       </c>
@@ -15318,7 +15338,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>55331</v>
       </c>
@@ -15341,7 +15361,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>55376</v>
       </c>
@@ -15364,7 +15384,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>55414</v>
       </c>
@@ -15387,7 +15407,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>55425</v>
       </c>
@@ -15410,7 +15430,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>55439</v>
       </c>
@@ -15433,7 +15453,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>55455</v>
       </c>
@@ -15456,7 +15476,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>55505</v>
       </c>
@@ -15479,7 +15499,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>55512</v>
       </c>
@@ -15502,7 +15522,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>55539</v>
       </c>
@@ -15525,7 +15545,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>55569</v>
       </c>
@@ -15548,7 +15568,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>55618</v>
       </c>
@@ -15571,7 +15591,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>55702</v>
       </c>
@@ -15594,7 +15614,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>55765</v>
       </c>
@@ -15617,7 +15637,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>55768</v>
       </c>
@@ -15640,7 +15660,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>55771</v>
       </c>
@@ -15663,7 +15683,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>55782</v>
       </c>
@@ -15686,7 +15706,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>55784</v>
       </c>
@@ -15709,7 +15729,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>55785</v>
       </c>
@@ -15732,7 +15752,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>55815</v>
       </c>
@@ -15755,7 +15775,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>55863</v>
       </c>
@@ -15778,7 +15798,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>55915</v>
       </c>
@@ -15801,7 +15821,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>55918</v>
       </c>
@@ -15824,7 +15844,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>55939</v>
       </c>
@@ -15847,7 +15867,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>56043</v>
       </c>
@@ -15870,7 +15890,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>56052</v>
       </c>
@@ -15893,7 +15913,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>56064</v>
       </c>
@@ -15916,7 +15936,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>56144</v>
       </c>
@@ -15939,7 +15959,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>56170</v>
       </c>
@@ -15962,7 +15982,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>56180</v>
       </c>
@@ -15985,7 +16005,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>56191</v>
       </c>
@@ -16008,7 +16028,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>56192</v>
       </c>
@@ -16031,7 +16051,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>56198</v>
       </c>
@@ -16054,7 +16074,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>56214</v>
       </c>
@@ -16077,7 +16097,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>56216</v>
       </c>
@@ -16100,7 +16120,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>56242</v>
       </c>
@@ -16123,7 +16143,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>56243</v>
       </c>
@@ -16146,7 +16166,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>56249</v>
       </c>
@@ -16169,7 +16189,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>56252</v>
       </c>
@@ -16192,7 +16212,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>56412</v>
       </c>
@@ -16215,7 +16235,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>56541</v>
       </c>
@@ -16238,7 +16258,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>56600</v>
       </c>
@@ -16261,7 +16281,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>56716</v>
       </c>
@@ -16284,7 +16304,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>56721</v>
       </c>
@@ -16307,7 +16327,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>56722</v>
       </c>
@@ -16330,7 +16350,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>56786</v>
       </c>
@@ -16353,7 +16373,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>56812</v>
       </c>
@@ -16376,7 +16396,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>56860</v>
       </c>
@@ -16399,7 +16419,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>56888</v>
       </c>
@@ -16422,7 +16442,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>56895</v>
       </c>
@@ -16445,7 +16465,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>56912</v>
       </c>
@@ -16468,7 +16488,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>56913</v>
       </c>
@@ -16491,7 +16511,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>56918</v>
       </c>
@@ -16514,7 +16534,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>56987</v>
       </c>
@@ -16537,7 +16557,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>56990</v>
       </c>
@@ -16560,7 +16580,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>57001</v>
       </c>
@@ -16583,7 +16603,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>57006</v>
       </c>
@@ -16606,7 +16626,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>57048</v>
       </c>
@@ -16629,7 +16649,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>57051</v>
       </c>
@@ -16652,7 +16672,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>57056</v>
       </c>
@@ -16675,7 +16695,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>57076</v>
       </c>
@@ -16698,7 +16718,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>57079</v>
       </c>
@@ -16721,7 +16741,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>57086</v>
       </c>
@@ -16744,7 +16764,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>57097</v>
       </c>
@@ -16767,7 +16787,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>57126</v>
       </c>
@@ -16790,7 +16810,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>57149</v>
       </c>
@@ -16813,7 +16833,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>57163</v>
       </c>
@@ -16836,7 +16856,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>57170</v>
       </c>
@@ -16859,7 +16879,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>57172</v>
       </c>
@@ -16882,7 +16902,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>57178</v>
       </c>
@@ -16905,7 +16925,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>57179</v>
       </c>
@@ -16928,7 +16948,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>57184</v>
       </c>
@@ -16951,7 +16971,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>57232</v>
       </c>
@@ -16974,7 +16994,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>57233</v>
       </c>
@@ -16997,7 +17017,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>57235</v>
       </c>
@@ -17020,7 +17040,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>57241</v>
       </c>
@@ -17043,7 +17063,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>57244</v>
       </c>
@@ -17066,7 +17086,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>57245</v>
       </c>
@@ -17089,7 +17109,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>57247</v>
       </c>
@@ -17112,7 +17132,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>57249</v>
       </c>
@@ -17135,7 +17155,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>57250</v>
       </c>
@@ -17158,7 +17178,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>57254</v>
       </c>
@@ -17181,7 +17201,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>57255</v>
       </c>
@@ -17204,7 +17224,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>57257</v>
       </c>
@@ -17227,7 +17247,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>57258</v>
       </c>
@@ -17264,14 +17284,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>795</v>
       </c>

--- a/AG_nais_einheiten_unique_v2_mf.xlsx
+++ b/AG_nais_einheiten_unique_v2_mf.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2DEA1-85DF-477B-9C84-0E19B2F759AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D894B7DE-A76E-4367-972E-6A4C7D22C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49755" yWindow="900" windowWidth="19215" windowHeight="19875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56610" yWindow="840" windowWidth="19215" windowHeight="19875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Read me" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$613</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3156,10 +3159,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="H559" sqref="H559"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3199,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3217,7 +3222,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>161</v>
       </c>
@@ -3286,7 +3291,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>268</v>
       </c>
@@ -3309,7 +3314,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>370</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>413</v>
       </c>
@@ -3355,7 +3360,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>454</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>499</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -3424,7 +3429,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>512</v>
       </c>
@@ -3447,7 +3452,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>657</v>
       </c>
@@ -3470,7 +3475,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>717</v>
       </c>
@@ -3493,7 +3498,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1160</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1249</v>
       </c>
@@ -3539,7 +3544,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1274</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1317</v>
       </c>
@@ -3585,7 +3590,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1758</v>
       </c>
@@ -3608,7 +3613,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1927</v>
       </c>
@@ -3631,7 +3636,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2082</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3262</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3729</v>
       </c>
@@ -3700,7 +3705,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3736</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3756</v>
       </c>
@@ -3746,7 +3751,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3839</v>
       </c>
@@ -3769,7 +3774,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4007</v>
       </c>
@@ -3792,7 +3797,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4009</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4209</v>
       </c>
@@ -3861,7 +3866,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4259</v>
       </c>
@@ -3884,7 +3889,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4301</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4341</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4377</v>
       </c>
@@ -3953,7 +3958,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4386</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4446</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4562</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4981</v>
       </c>
@@ -4045,7 +4050,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5267</v>
       </c>
@@ -4068,7 +4073,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5456</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5646</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5704</v>
       </c>
@@ -4137,7 +4142,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>6778</v>
       </c>
@@ -4160,7 +4165,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>7162</v>
       </c>
@@ -4183,7 +4188,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7166</v>
       </c>
@@ -4206,7 +4211,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7169</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7183</v>
       </c>
@@ -4252,7 +4257,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7188</v>
       </c>
@@ -4275,7 +4280,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>7249</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7274</v>
       </c>
@@ -4321,7 +4326,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7294</v>
       </c>
@@ -4344,7 +4349,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7373</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7432</v>
       </c>
@@ -4390,7 +4395,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>7442</v>
       </c>
@@ -4413,7 +4418,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7494</v>
       </c>
@@ -4436,7 +4441,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7513</v>
       </c>
@@ -4459,7 +4464,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7525</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7532</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>7561</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>7571</v>
       </c>
@@ -4551,7 +4556,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7625</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8194</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>8287</v>
       </c>
@@ -4620,7 +4625,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>8307</v>
       </c>
@@ -4666,7 +4671,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8832</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9063</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>9098</v>
       </c>
@@ -4735,7 +4740,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>9385</v>
       </c>
@@ -4758,7 +4763,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>9461</v>
       </c>
@@ -4781,7 +4786,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9467</v>
       </c>
@@ -4804,7 +4809,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9809</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9833</v>
       </c>
@@ -4850,7 +4855,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>9856</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9869</v>
       </c>
@@ -4896,7 +4901,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10039</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10061</v>
       </c>
@@ -4942,7 +4947,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10156</v>
       </c>
@@ -4965,7 +4970,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>10209</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10210</v>
       </c>
@@ -5011,7 +5016,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10216</v>
       </c>
@@ -5034,7 +5039,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>10370</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10372</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10464</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>10824</v>
       </c>
@@ -5149,7 +5154,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>10890</v>
       </c>
@@ -5172,7 +5177,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>11388</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>11805</v>
       </c>
@@ -5218,7 +5223,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>11806</v>
       </c>
@@ -5241,7 +5246,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>11977</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>11996</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>12001</v>
       </c>
@@ -5310,7 +5315,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>12017</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>12135</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>12471</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>13062</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>14295</v>
       </c>
@@ -5425,7 +5430,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>14366</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>14372</v>
       </c>
@@ -5471,7 +5476,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>15193</v>
       </c>
@@ -5494,7 +5499,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>15198</v>
       </c>
@@ -5517,7 +5522,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>15236</v>
       </c>
@@ -5540,7 +5545,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>15336</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>15418</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>15438</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>15676</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>16531</v>
       </c>
@@ -5678,7 +5683,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>17804</v>
       </c>
@@ -5701,7 +5706,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>17898</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>18211</v>
       </c>
@@ -5747,7 +5752,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>18220</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>18237</v>
       </c>
@@ -5793,7 +5798,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>18284</v>
       </c>
@@ -5816,7 +5821,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>18336</v>
       </c>
@@ -5839,7 +5844,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>18506</v>
       </c>
@@ -5862,7 +5867,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>18511</v>
       </c>
@@ -5885,7 +5890,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>18515</v>
       </c>
@@ -5908,7 +5913,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>18520</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>18855</v>
       </c>
@@ -5954,7 +5959,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>18952</v>
       </c>
@@ -5977,7 +5982,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>19042</v>
       </c>
@@ -6000,7 +6005,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>19051</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>19059</v>
       </c>
@@ -6046,7 +6051,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>19654</v>
       </c>
@@ -6069,7 +6074,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>19661</v>
       </c>
@@ -6092,7 +6097,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>20470</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>20601</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>21023</v>
       </c>
@@ -6161,7 +6166,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>21431</v>
       </c>
@@ -6184,7 +6189,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>22352</v>
       </c>
@@ -6207,7 +6212,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>22361</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>22443</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>22520</v>
       </c>
@@ -6276,7 +6281,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>22691</v>
       </c>
@@ -6299,7 +6304,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>22867</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>23056</v>
       </c>
@@ -6345,7 +6350,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>23403</v>
       </c>
@@ -6368,7 +6373,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>23485</v>
       </c>
@@ -6391,7 +6396,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>23486</v>
       </c>
@@ -6414,7 +6419,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>23491</v>
       </c>
@@ -6460,7 +6465,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>23568</v>
       </c>
@@ -6483,7 +6488,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>23576</v>
       </c>
@@ -6506,7 +6511,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>23589</v>
       </c>
@@ -6529,7 +6534,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>23638</v>
       </c>
@@ -6552,7 +6557,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>23657</v>
       </c>
@@ -6575,7 +6580,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>23686</v>
       </c>
@@ -6598,7 +6603,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>23689</v>
       </c>
@@ -6621,7 +6626,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>23907</v>
       </c>
@@ -6667,7 +6672,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>24571</v>
       </c>
@@ -6690,7 +6695,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>24577</v>
       </c>
@@ -6713,7 +6718,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>24589</v>
       </c>
@@ -6736,7 +6741,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>24607</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>24627</v>
       </c>
@@ -6782,7 +6787,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>24648</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>24658</v>
       </c>
@@ -6828,7 +6833,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>24663</v>
       </c>
@@ -6851,7 +6856,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>24664</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>24667</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>24728</v>
       </c>
@@ -6920,7 +6925,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>24784</v>
       </c>
@@ -6943,7 +6948,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>24787</v>
       </c>
@@ -6966,7 +6971,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>24820</v>
       </c>
@@ -6989,7 +6994,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>24845</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>25043</v>
       </c>
@@ -7035,7 +7040,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>25206</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>25414</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>25421</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>25425</v>
       </c>
@@ -7127,7 +7132,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>25454</v>
       </c>
@@ -7150,7 +7155,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>25455</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>25483</v>
       </c>
@@ -7196,7 +7201,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>25487</v>
       </c>
@@ -7219,7 +7224,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>25521</v>
       </c>
@@ -7242,7 +7247,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>25534</v>
       </c>
@@ -7265,7 +7270,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>25635</v>
       </c>
@@ -7288,7 +7293,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>25682</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>26107</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>26221</v>
       </c>
@@ -7357,7 +7362,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>26337</v>
       </c>
@@ -7380,7 +7385,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>26493</v>
       </c>
@@ -7403,7 +7408,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>26497</v>
       </c>
@@ -7426,7 +7431,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>26640</v>
       </c>
@@ -7449,7 +7454,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>26998</v>
       </c>
@@ -7472,7 +7477,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>27013</v>
       </c>
@@ -7495,7 +7500,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>27034</v>
       </c>
@@ -7518,7 +7523,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>27061</v>
       </c>
@@ -7541,7 +7546,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>27068</v>
       </c>
@@ -7587,7 +7592,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>27373</v>
       </c>
@@ -7610,7 +7615,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>27443</v>
       </c>
@@ -7633,7 +7638,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>27447</v>
       </c>
@@ -7656,7 +7661,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>27768</v>
       </c>
@@ -7679,7 +7684,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>28188</v>
       </c>
@@ -7702,7 +7707,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>28252</v>
       </c>
@@ -7725,7 +7730,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>28258</v>
       </c>
@@ -7748,7 +7753,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>28293</v>
       </c>
@@ -7771,7 +7776,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>28346</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>28347</v>
       </c>
@@ -7840,7 +7845,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>28349</v>
       </c>
@@ -7863,7 +7868,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>28396</v>
       </c>
@@ -7886,7 +7891,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>28421</v>
       </c>
@@ -7909,7 +7914,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>28425</v>
       </c>
@@ -7932,7 +7937,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>28445</v>
       </c>
@@ -7955,7 +7960,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>28568</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>28584</v>
       </c>
@@ -8001,7 +8006,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>28661</v>
       </c>
@@ -8024,7 +8029,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>29521</v>
       </c>
@@ -8047,7 +8052,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>29944</v>
       </c>
@@ -8070,7 +8075,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>30014</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>30694</v>
       </c>
@@ -8116,7 +8121,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>30695</v>
       </c>
@@ -8139,7 +8144,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>30745</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>30849</v>
       </c>
@@ -8185,7 +8190,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>30858</v>
       </c>
@@ -8208,7 +8213,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>30887</v>
       </c>
@@ -8231,7 +8236,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>30898</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>30915</v>
       </c>
@@ -8277,7 +8282,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>31065</v>
       </c>
@@ -8300,7 +8305,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>31183</v>
       </c>
@@ -8323,7 +8328,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>31199</v>
       </c>
@@ -8346,7 +8351,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>31200</v>
       </c>
@@ -8369,7 +8374,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>31351</v>
       </c>
@@ -8392,7 +8397,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>31353</v>
       </c>
@@ -8415,7 +8420,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>31638</v>
       </c>
@@ -8438,7 +8443,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>31685</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>31730</v>
       </c>
@@ -8507,7 +8512,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>31755</v>
       </c>
@@ -8530,7 +8535,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>31762</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>31763</v>
       </c>
@@ -8576,7 +8581,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>31798</v>
       </c>
@@ -8599,7 +8604,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>31819</v>
       </c>
@@ -8622,7 +8627,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>31881</v>
       </c>
@@ -8645,7 +8650,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>31979</v>
       </c>
@@ -8668,7 +8673,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>32022</v>
       </c>
@@ -8691,7 +8696,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>32023</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>32206</v>
       </c>
@@ -8737,7 +8742,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>32248</v>
       </c>
@@ -8760,7 +8765,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>32250</v>
       </c>
@@ -8783,7 +8788,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>32251</v>
       </c>
@@ -8806,7 +8811,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>32253</v>
       </c>
@@ -8829,7 +8834,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>32327</v>
       </c>
@@ -8852,7 +8857,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>32370</v>
       </c>
@@ -8875,7 +8880,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>32372</v>
       </c>
@@ -8898,7 +8903,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>32373</v>
       </c>
@@ -8921,7 +8926,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>32375</v>
       </c>
@@ -8944,7 +8949,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>32452</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>32542</v>
       </c>
@@ -9013,7 +9018,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>33453</v>
       </c>
@@ -9036,7 +9041,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>33767</v>
       </c>
@@ -9059,7 +9064,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>34094</v>
       </c>
@@ -9082,7 +9087,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>34263</v>
       </c>
@@ -9105,7 +9110,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>34328</v>
       </c>
@@ -9128,7 +9133,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>35294</v>
       </c>
@@ -9151,7 +9156,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>35944</v>
       </c>
@@ -9174,7 +9179,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>36322</v>
       </c>
@@ -9197,7 +9202,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>36325</v>
       </c>
@@ -9220,7 +9225,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>36368</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>36393</v>
       </c>
@@ -9266,7 +9271,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>36416</v>
       </c>
@@ -9289,7 +9294,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>36510</v>
       </c>
@@ -9312,7 +9317,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>36551</v>
       </c>
@@ -9335,7 +9340,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>36677</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>36680</v>
       </c>
@@ -9381,7 +9386,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>36800</v>
       </c>
@@ -9404,7 +9409,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>36895</v>
       </c>
@@ -9427,7 +9432,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>36958</v>
       </c>
@@ -9450,7 +9455,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>37170</v>
       </c>
@@ -9473,7 +9478,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>37199</v>
       </c>
@@ -9496,7 +9501,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>37252</v>
       </c>
@@ -9519,7 +9524,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>37258</v>
       </c>
@@ -9542,7 +9547,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>37265</v>
       </c>
@@ -9565,7 +9570,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>37269</v>
       </c>
@@ -9588,7 +9593,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>37274</v>
       </c>
@@ -9611,7 +9616,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>37279</v>
       </c>
@@ -9634,7 +9639,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>37290</v>
       </c>
@@ -9657,7 +9662,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>37320</v>
       </c>
@@ -9680,7 +9685,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>37366</v>
       </c>
@@ -9703,7 +9708,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>37395</v>
       </c>
@@ -9726,7 +9731,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>37447</v>
       </c>
@@ -9749,7 +9754,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>37496</v>
       </c>
@@ -9772,7 +9777,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>37528</v>
       </c>
@@ -9795,7 +9800,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>37530</v>
       </c>
@@ -9818,7 +9823,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>37555</v>
       </c>
@@ -9841,7 +9846,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>37564</v>
       </c>
@@ -9864,7 +9869,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>37567</v>
       </c>
@@ -9887,7 +9892,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>37570</v>
       </c>
@@ -9910,7 +9915,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>37582</v>
       </c>
@@ -9956,7 +9961,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>37604</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>37679</v>
       </c>
@@ -10002,7 +10007,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>37701</v>
       </c>
@@ -10025,7 +10030,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>37916</v>
       </c>
@@ -10048,7 +10053,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>37984</v>
       </c>
@@ -10071,7 +10076,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>38007</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>38008</v>
       </c>
@@ -10117,7 +10122,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>38142</v>
       </c>
@@ -10140,7 +10145,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>38282</v>
       </c>
@@ -10163,7 +10168,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>38494</v>
       </c>
@@ -10186,7 +10191,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>38816</v>
       </c>
@@ -10209,7 +10214,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>38842</v>
       </c>
@@ -10232,7 +10237,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>38850</v>
       </c>
@@ -10255,7 +10260,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>38868</v>
       </c>
@@ -10278,7 +10283,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>38919</v>
       </c>
@@ -10301,7 +10306,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>38920</v>
       </c>
@@ -10324,7 +10329,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>38951</v>
       </c>
@@ -10347,7 +10352,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>39023</v>
       </c>
@@ -10370,7 +10375,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>39219</v>
       </c>
@@ -10393,7 +10398,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>39238</v>
       </c>
@@ -10416,7 +10421,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>39253</v>
       </c>
@@ -10439,7 +10444,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>39279</v>
       </c>
@@ -10462,7 +10467,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>39362</v>
       </c>
@@ -10485,7 +10490,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>39511</v>
       </c>
@@ -10508,7 +10513,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>39558</v>
       </c>
@@ -10531,7 +10536,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>39786</v>
       </c>
@@ -10554,7 +10559,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>40281</v>
       </c>
@@ -10577,7 +10582,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>40770</v>
       </c>
@@ -10600,7 +10605,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>40813</v>
       </c>
@@ -10623,7 +10628,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>40849</v>
       </c>
@@ -10646,7 +10651,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>41332</v>
       </c>
@@ -10669,7 +10674,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>41333</v>
       </c>
@@ -10692,7 +10697,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>41341</v>
       </c>
@@ -10715,7 +10720,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>41343</v>
       </c>
@@ -10738,7 +10743,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>41586</v>
       </c>
@@ -10761,7 +10766,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>42064</v>
       </c>
@@ -10784,7 +10789,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>42378</v>
       </c>
@@ -10807,7 +10812,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>42407</v>
       </c>
@@ -10830,7 +10835,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>42518</v>
       </c>
@@ -10853,7 +10858,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>42535</v>
       </c>
@@ -10876,7 +10881,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>42629</v>
       </c>
@@ -10899,7 +10904,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>42735</v>
       </c>
@@ -10922,7 +10927,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>42931</v>
       </c>
@@ -10945,7 +10950,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43249</v>
       </c>
@@ -10968,7 +10973,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43785</v>
       </c>
@@ -10991,7 +10996,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43792</v>
       </c>
@@ -11014,7 +11019,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43796</v>
       </c>
@@ -11037,7 +11042,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43807</v>
       </c>
@@ -11060,7 +11065,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43823</v>
       </c>
@@ -11083,7 +11088,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43872</v>
       </c>
@@ -11106,7 +11111,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43901</v>
       </c>
@@ -11129,7 +11134,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44058</v>
       </c>
@@ -11152,7 +11157,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44063</v>
       </c>
@@ -11175,7 +11180,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44065</v>
       </c>
@@ -11221,7 +11226,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44196</v>
       </c>
@@ -11244,7 +11249,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44210</v>
       </c>
@@ -11267,7 +11272,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44670</v>
       </c>
@@ -11290,7 +11295,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44694</v>
       </c>
@@ -11313,7 +11318,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44807</v>
       </c>
@@ -11336,7 +11341,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44862</v>
       </c>
@@ -11359,7 +11364,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44925</v>
       </c>
@@ -11382,7 +11387,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>45022</v>
       </c>
@@ -11428,7 +11433,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>45082</v>
       </c>
@@ -11451,7 +11456,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>46365</v>
       </c>
@@ -11474,7 +11479,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>47007</v>
       </c>
@@ -11497,7 +11502,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>47061</v>
       </c>
@@ -11520,7 +11525,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>47066</v>
       </c>
@@ -11543,7 +11548,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>47087</v>
       </c>
@@ -11566,7 +11571,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>47109</v>
       </c>
@@ -11589,7 +11594,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>47123</v>
       </c>
@@ -11612,7 +11617,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>47138</v>
       </c>
@@ -11635,7 +11640,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>47165</v>
       </c>
@@ -11658,7 +11663,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>47166</v>
       </c>
@@ -11681,7 +11686,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>47241</v>
       </c>
@@ -11704,7 +11709,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>47871</v>
       </c>
@@ -11727,7 +11732,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>47939</v>
       </c>
@@ -11750,7 +11755,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>47963</v>
       </c>
@@ -11773,7 +11778,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>48006</v>
       </c>
@@ -11796,7 +11801,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>48034</v>
       </c>
@@ -11819,7 +11824,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>48036</v>
       </c>
@@ -11842,7 +11847,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>48125</v>
       </c>
@@ -11865,7 +11870,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>48161</v>
       </c>
@@ -11888,7 +11893,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>48166</v>
       </c>
@@ -11911,7 +11916,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>48182</v>
       </c>
@@ -11934,7 +11939,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>48232</v>
       </c>
@@ -11957,7 +11962,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>48246</v>
       </c>
@@ -11980,7 +11985,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>48485</v>
       </c>
@@ -12003,7 +12008,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>48598</v>
       </c>
@@ -12026,7 +12031,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>48610</v>
       </c>
@@ -12049,7 +12054,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>48618</v>
       </c>
@@ -12072,7 +12077,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>48637</v>
       </c>
@@ -12095,7 +12100,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>48669</v>
       </c>
@@ -12118,7 +12123,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>48947</v>
       </c>
@@ -12141,7 +12146,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49016</v>
       </c>
@@ -12164,7 +12169,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49069</v>
       </c>
@@ -12187,7 +12192,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49210</v>
       </c>
@@ -12210,7 +12215,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49213</v>
       </c>
@@ -12233,7 +12238,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49215</v>
       </c>
@@ -12256,7 +12261,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49280</v>
       </c>
@@ -12302,7 +12307,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49461</v>
       </c>
@@ -12325,7 +12330,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49462</v>
       </c>
@@ -12348,7 +12353,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49647</v>
       </c>
@@ -12371,7 +12376,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49651</v>
       </c>
@@ -12394,7 +12399,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49762</v>
       </c>
@@ -12417,7 +12422,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49765</v>
       </c>
@@ -12440,7 +12445,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49771</v>
       </c>
@@ -12463,7 +12468,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49780</v>
       </c>
@@ -12486,7 +12491,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49789</v>
       </c>
@@ -12509,7 +12514,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49874</v>
       </c>
@@ -12532,7 +12537,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49960</v>
       </c>
@@ -12555,7 +12560,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49969</v>
       </c>
@@ -12578,7 +12583,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>50047</v>
       </c>
@@ -12601,7 +12606,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>50301</v>
       </c>
@@ -12624,7 +12629,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>50326</v>
       </c>
@@ -12647,7 +12652,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>50339</v>
       </c>
@@ -12670,7 +12675,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>50381</v>
       </c>
@@ -12693,7 +12698,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>50623</v>
       </c>
@@ -12716,7 +12721,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>50851</v>
       </c>
@@ -12739,7 +12744,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>50872</v>
       </c>
@@ -12762,7 +12767,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>50949</v>
       </c>
@@ -12785,7 +12790,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>50952</v>
       </c>
@@ -12808,7 +12813,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>50953</v>
       </c>
@@ -12831,7 +12836,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>51033</v>
       </c>
@@ -12854,7 +12859,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>51041</v>
       </c>
@@ -12900,7 +12905,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>51345</v>
       </c>
@@ -12923,7 +12928,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>51415</v>
       </c>
@@ -12969,7 +12974,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>51605</v>
       </c>
@@ -12992,7 +12997,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>51610</v>
       </c>
@@ -13015,7 +13020,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>51653</v>
       </c>
@@ -13038,7 +13043,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>51654</v>
       </c>
@@ -13061,7 +13066,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>51662</v>
       </c>
@@ -13084,7 +13089,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>51700</v>
       </c>
@@ -13107,7 +13112,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>51742</v>
       </c>
@@ -13130,7 +13135,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>51756</v>
       </c>
@@ -13153,7 +13158,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>51804</v>
       </c>
@@ -13176,7 +13181,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>51817</v>
       </c>
@@ -13199,7 +13204,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>51843</v>
       </c>
@@ -13222,7 +13227,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>51913</v>
       </c>
@@ -13245,7 +13250,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>51934</v>
       </c>
@@ -13268,7 +13273,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>51969</v>
       </c>
@@ -13291,7 +13296,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>52015</v>
       </c>
@@ -13314,7 +13319,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>52044</v>
       </c>
@@ -13337,7 +13342,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>52059</v>
       </c>
@@ -13360,7 +13365,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>52137</v>
       </c>
@@ -13383,7 +13388,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>52203</v>
       </c>
@@ -13406,7 +13411,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>52287</v>
       </c>
@@ -13452,7 +13457,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>52336</v>
       </c>
@@ -13475,7 +13480,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>52350</v>
       </c>
@@ -13498,7 +13503,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>52363</v>
       </c>
@@ -13521,7 +13526,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>52367</v>
       </c>
@@ -13544,7 +13549,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>52369</v>
       </c>
@@ -13567,7 +13572,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>52409</v>
       </c>
@@ -13590,7 +13595,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>52464</v>
       </c>
@@ -13613,7 +13618,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>52466</v>
       </c>
@@ -13636,7 +13641,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>52472</v>
       </c>
@@ -13659,7 +13664,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>52499</v>
       </c>
@@ -13705,7 +13710,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>52511</v>
       </c>
@@ -13728,7 +13733,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>52517</v>
       </c>
@@ -13751,7 +13756,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>52518</v>
       </c>
@@ -13774,7 +13779,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>52520</v>
       </c>
@@ -13797,7 +13802,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>52577</v>
       </c>
@@ -13820,7 +13825,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>52654</v>
       </c>
@@ -13843,7 +13848,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>52696</v>
       </c>
@@ -13866,7 +13871,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>52971</v>
       </c>
@@ -13889,7 +13894,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>53016</v>
       </c>
@@ -13912,7 +13917,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>53031</v>
       </c>
@@ -13935,7 +13940,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>53044</v>
       </c>
@@ -13981,7 +13986,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>53188</v>
       </c>
@@ -14004,7 +14009,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>53198</v>
       </c>
@@ -14027,7 +14032,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>53205</v>
       </c>
@@ -14050,7 +14055,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>53236</v>
       </c>
@@ -14073,7 +14078,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>53257</v>
       </c>
@@ -14096,7 +14101,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>53259</v>
       </c>
@@ -14119,7 +14124,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>53263</v>
       </c>
@@ -14142,7 +14147,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>53277</v>
       </c>
@@ -14165,7 +14170,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>53301</v>
       </c>
@@ -14188,7 +14193,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>53333</v>
       </c>
@@ -14211,7 +14216,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>53405</v>
       </c>
@@ -14234,7 +14239,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>53414</v>
       </c>
@@ -14257,7 +14262,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>53423</v>
       </c>
@@ -14280,7 +14285,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>53447</v>
       </c>
@@ -14303,7 +14308,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>53610</v>
       </c>
@@ -14326,7 +14331,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>53611</v>
       </c>
@@ -14349,7 +14354,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>53612</v>
       </c>
@@ -14372,7 +14377,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>53615</v>
       </c>
@@ -14395,7 +14400,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>53619</v>
       </c>
@@ -14418,7 +14423,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>53634</v>
       </c>
@@ -14441,7 +14446,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>53639</v>
       </c>
@@ -14464,7 +14469,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>53650</v>
       </c>
@@ -14487,7 +14492,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>53680</v>
       </c>
@@ -14510,7 +14515,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>53692</v>
       </c>
@@ -14533,7 +14538,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>53953</v>
       </c>
@@ -14556,7 +14561,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>53968</v>
       </c>
@@ -14579,7 +14584,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>53998</v>
       </c>
@@ -14602,7 +14607,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>54022</v>
       </c>
@@ -14625,7 +14630,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>54043</v>
       </c>
@@ -14671,7 +14676,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>54485</v>
       </c>
@@ -14694,7 +14699,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>54546</v>
       </c>
@@ -14717,7 +14722,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>54548</v>
       </c>
@@ -14740,7 +14745,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>54780</v>
       </c>
@@ -14763,7 +14768,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>54811</v>
       </c>
@@ -14786,7 +14791,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>54825</v>
       </c>
@@ -14809,7 +14814,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>54835</v>
       </c>
@@ -14878,7 +14883,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>54904</v>
       </c>
@@ -14901,7 +14906,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>54925</v>
       </c>
@@ -14924,7 +14929,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>54954</v>
       </c>
@@ -14947,7 +14952,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>54958</v>
       </c>
@@ -14993,7 +14998,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>54981</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>54989</v>
       </c>
@@ -15039,7 +15044,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>55000</v>
       </c>
@@ -15062,7 +15067,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>55003</v>
       </c>
@@ -15085,7 +15090,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>55011</v>
       </c>
@@ -15108,7 +15113,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>55024</v>
       </c>
@@ -15131,7 +15136,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>55025</v>
       </c>
@@ -15154,7 +15159,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>55031</v>
       </c>
@@ -15177,7 +15182,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>55177</v>
       </c>
@@ -15200,7 +15205,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>55255</v>
       </c>
@@ -15223,7 +15228,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>55256</v>
       </c>
@@ -15246,7 +15251,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>55307</v>
       </c>
@@ -15361,7 +15366,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>55376</v>
       </c>
@@ -15384,7 +15389,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>55414</v>
       </c>
@@ -15407,7 +15412,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>55425</v>
       </c>
@@ -15430,7 +15435,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>55439</v>
       </c>
@@ -15453,7 +15458,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>55455</v>
       </c>
@@ -15476,7 +15481,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>55505</v>
       </c>
@@ -15499,7 +15504,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>55512</v>
       </c>
@@ -15522,7 +15527,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>55539</v>
       </c>
@@ -15545,7 +15550,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>55569</v>
       </c>
@@ -15568,7 +15573,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>55618</v>
       </c>
@@ -15591,7 +15596,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>55702</v>
       </c>
@@ -15614,7 +15619,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>55765</v>
       </c>
@@ -15637,7 +15642,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>55768</v>
       </c>
@@ -15660,7 +15665,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>55771</v>
       </c>
@@ -15683,7 +15688,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>55782</v>
       </c>
@@ -15706,7 +15711,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>55784</v>
       </c>
@@ -15729,7 +15734,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>55785</v>
       </c>
@@ -15752,7 +15757,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>55815</v>
       </c>
@@ -15775,7 +15780,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>55863</v>
       </c>
@@ -15798,7 +15803,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>55915</v>
       </c>
@@ -15821,7 +15826,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>55918</v>
       </c>
@@ -15844,7 +15849,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>55939</v>
       </c>
@@ -15867,7 +15872,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>56043</v>
       </c>
@@ -15890,7 +15895,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>56052</v>
       </c>
@@ -15913,7 +15918,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>56064</v>
       </c>
@@ -15936,7 +15941,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>56144</v>
       </c>
@@ -15959,7 +15964,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>56170</v>
       </c>
@@ -15982,7 +15987,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>56180</v>
       </c>
@@ -16005,7 +16010,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>56191</v>
       </c>
@@ -16028,7 +16033,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>56192</v>
       </c>
@@ -16051,7 +16056,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>56198</v>
       </c>
@@ -16074,7 +16079,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>56214</v>
       </c>
@@ -16097,7 +16102,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>56216</v>
       </c>
@@ -16120,7 +16125,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>56242</v>
       </c>
@@ -16143,7 +16148,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>56243</v>
       </c>
@@ -16166,7 +16171,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>56249</v>
       </c>
@@ -16189,7 +16194,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>56252</v>
       </c>
@@ -16212,7 +16217,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>56412</v>
       </c>
@@ -16235,7 +16240,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>56541</v>
       </c>
@@ -16258,7 +16263,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>56600</v>
       </c>
@@ -16281,7 +16286,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>56716</v>
       </c>
@@ -16304,7 +16309,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>56721</v>
       </c>
@@ -16327,7 +16332,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>56722</v>
       </c>
@@ -16350,7 +16355,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>56786</v>
       </c>
@@ -16373,7 +16378,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>56812</v>
       </c>
@@ -16396,7 +16401,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>56860</v>
       </c>
@@ -16419,7 +16424,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>56888</v>
       </c>
@@ -16442,7 +16447,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>56895</v>
       </c>
@@ -16465,7 +16470,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>56912</v>
       </c>
@@ -16488,7 +16493,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>56913</v>
       </c>
@@ -16511,7 +16516,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>56918</v>
       </c>
@@ -16534,7 +16539,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>56987</v>
       </c>
@@ -16557,7 +16562,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>56990</v>
       </c>
@@ -16580,7 +16585,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>57001</v>
       </c>
@@ -16603,7 +16608,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>57006</v>
       </c>
@@ -16626,7 +16631,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>57048</v>
       </c>
@@ -16649,7 +16654,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>57051</v>
       </c>
@@ -16672,7 +16677,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>57056</v>
       </c>
@@ -16695,7 +16700,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>57076</v>
       </c>
@@ -16718,7 +16723,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>57079</v>
       </c>
@@ -16741,7 +16746,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>57086</v>
       </c>
@@ -16764,7 +16769,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>57097</v>
       </c>
@@ -16787,7 +16792,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>57126</v>
       </c>
@@ -16810,7 +16815,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>57149</v>
       </c>
@@ -16833,7 +16838,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>57163</v>
       </c>
@@ -16856,7 +16861,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>57170</v>
       </c>
@@ -16879,7 +16884,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>57172</v>
       </c>
@@ -16902,7 +16907,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>57178</v>
       </c>
@@ -16925,7 +16930,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>57179</v>
       </c>
@@ -16948,7 +16953,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>57184</v>
       </c>
@@ -16971,7 +16976,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>57232</v>
       </c>
@@ -16994,7 +16999,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>57233</v>
       </c>
@@ -17017,7 +17022,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>57235</v>
       </c>
@@ -17040,7 +17045,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>57241</v>
       </c>
@@ -17063,7 +17068,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>57244</v>
       </c>
@@ -17086,7 +17091,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>57245</v>
       </c>
@@ -17109,7 +17114,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>57247</v>
       </c>
@@ -17132,7 +17137,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>57249</v>
       </c>
@@ -17155,7 +17160,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>57250</v>
       </c>
@@ -17178,7 +17183,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>57254</v>
       </c>
@@ -17201,7 +17206,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>57255</v>
       </c>
@@ -17224,7 +17229,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>57257</v>
       </c>
@@ -17247,7 +17252,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>57258</v>
       </c>
@@ -17271,6 +17276,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G613" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="co(sm)"/>
+        <filter val="sm(co)"/>
+        <filter val="sm(um)"/>
+        <filter val="um(om)"/>
+        <filter val="um(sm)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
